--- a/results/01_Distribution.xlsx
+++ b/results/01_Distribution.xlsx
@@ -1,20 +1,72 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28110"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_AD6AFDCE8F79A8D366075C52F3DD62B22AD18927" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{083782E2-6946-46C7-B2ED-C68E26713B02}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+  <si>
+    <t>ADEPT</t>
+  </si>
+  <si>
+    <t>Oak</t>
+  </si>
+  <si>
+    <t>SDT</t>
+  </si>
+  <si>
+    <t>Stepcount</t>
+  </si>
+  <si>
+    <t>Verisense</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Skewness</t>
+  </si>
+  <si>
+    <t>Kurtosis</t>
+  </si>
+  <si>
+    <t>Shapiro-Wilk normality test</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -52,24 +104,33 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -107,7 +168,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -141,6 +202,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -175,9 +237,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -350,109 +413,93 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" s="1" customFormat="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ADEPT</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Oak</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>SDT</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Stepcount</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Verisense</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Method</t>
-        </is>
+    <row r="1" spans="1:6" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2">
-        <v>4.379896383215906</v>
-      </c>
-      <c r="B2">
-        <v>0.9573995605220088</v>
-      </c>
-      <c r="C2">
-        <v>0.2153834935165155</v>
-      </c>
-      <c r="D2">
-        <v>0.8921572548677855</v>
-      </c>
-      <c r="E2">
-        <v>1.421137559164939</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>Skewness</t>
-        </is>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2">
+        <v>4.3798963832159101</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0.95739956052200881</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.21538349351651551</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0.89215725486778552</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1.4211375591649389</v>
+      </c>
+      <c r="F2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3">
-        <v>41.16497783421107</v>
-      </c>
-      <c r="B3">
-        <v>4.111317385925322</v>
-      </c>
-      <c r="C3">
-        <v>2.951623645847718</v>
-      </c>
-      <c r="D3">
-        <v>4.26126404964842</v>
-      </c>
-      <c r="E3">
-        <v>6.15074609661936</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Kurtosis</t>
-        </is>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2">
+        <v>41.164977834211072</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.1113173859253216</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2.9516236458477181</v>
+      </c>
+      <c r="D3" s="2">
+        <v>4.2612640496484202</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6.1507460966193603</v>
+      </c>
+      <c r="F3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>2.294111573566981E-44</v>
       </c>
       <c r="B4">
-        <v>2.223675505521669E-21</v>
+        <v>2.2236755055216688E-21</v>
       </c>
       <c r="C4">
-        <v>0.00556298478535236</v>
+        <v>5.5629847853523604E-3</v>
       </c>
       <c r="D4">
-        <v>1.979707908777126E-19</v>
+        <v>1.9797079087771261E-19</v>
       </c>
       <c r="E4">
-        <v>1.042153861063419E-28</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Shapiro-Wilk normality test</t>
-        </is>
+        <v>1.0421538610634189E-28</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
